--- a/outputs-HGR-r202/g__Limosilactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Limosilactobacillus.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A(reject)</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A(reject)</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A(reject)</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A(reject)</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A(reject)</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A(reject)</t>
+          <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Limosilactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Limosilactobacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,216 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47179.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.005462953669535743</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03495032383206528</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1562267689639206</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3388924029576636</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4644675505768148</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4644675505768148</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60365.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01769340184460746</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04634275184218244</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1427828919526843</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2974927139643435</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4956882403961824</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4956882403961824</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61176.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02513823199633585</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05767264116206012</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1423179105908852</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.26196894358936</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5129022726613588</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5129022726613588</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69384.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.08278916862688482</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0246920895796349</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07109899874725874</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5301546175138548</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2912651255323666</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5301546175138548</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT76426.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01267526245850452</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0654182679673789</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2167577828666889</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2410991060410648</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4640495806663628</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4640495806663628</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83501.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0943247818472802</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04911539686018988</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.09282395511138057</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2639771223314646</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4997587438496847</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4997587438496847</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83507.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01605307094748632</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05379831524397638</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1723035000629603</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2934853309602789</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4643597827852982</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4643597827852982</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Limosilactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Limosilactobacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>s__Limosilactobacillus fermentum</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus fermentum</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>s__Limosilactobacillus sp900557215</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus sp900557215</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +720,11 @@
           <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -715,6 +755,11 @@
           <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -741,6 +786,11 @@
         <v>0.4643597827852982</v>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>s__Limosilactobacillus vaginalis_A</t>
         </is>

--- a/outputs-HGR-r202/g__Limosilactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Limosilactobacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,7 +617,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
+          <t>s__Limosilactobacillus vaginalis_A(reject)</t>
         </is>
       </c>
     </row>
@@ -764,68 +764,103 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83501.fa</t>
+          <t>even_MAG-GUT80232.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0943247818472802</v>
+        <v>0.0444281988513508</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04911539686018988</v>
+        <v>0.7801510703252318</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09282395511138057</v>
+        <v>0.005294477632054245</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2639771223314646</v>
+        <v>0.001207784026963401</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4997587438496847</v>
+        <v>0.1689184691643997</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4997587438496847</v>
+        <v>0.7801510703252318</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
+          <t>s__Limosilactobacillus fermentum</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
+          <t>s__Limosilactobacillus fermentum</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT83501.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0943247818472802</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04911539686018988</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09282395511138057</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2639771223314646</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4997587438496847</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4997587438496847</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT83507.fa</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>0.01605307094748632</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>0.05379831524397638</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>0.1723035000629603</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>0.2934853309602789</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>0.4643597827852982</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>0.4643597827852982</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__Limosilactobacillus vaginalis_A</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__Limosilactobacillus vaginalis_A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>s__Limosilactobacillus vaginalis_A</t>
         </is>
